--- a/files/TOPIC_Text.xlsx
+++ b/files/TOPIC_Text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Hochschule der Medien_M.Sc. Data Science\Master\Repository\ml-classification-repo\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B81699-7107-4B8C-B1C9-1639FFDD6CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25408D9-DD90-4CC0-9795-49768B3C11FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>AUTONOMOUS</t>
   </si>
@@ -48,9 +48,6 @@
     <t>SHARED</t>
   </si>
   <si>
-    <t>TOPIC</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -100,6 +97,30 @@
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Mass_Customization</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Elektromobilit%C3%A4t</t>
+  </si>
+  <si>
+    <t>CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Selbstfahrendes_Kraftfahrzeug</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Mobility-as-a-Service</t>
+  </si>
+  <si>
+    <t>https://www2.deloitte.com/de/de/pages/consumer-business/articles/nachhaltigkeit-deutsche-automobilindustrie-studie-2021.html</t>
+  </si>
+  <si>
+    <t>https://weissenberg-group.de/die-digitale-transformation-der-automobilindustrie/</t>
+  </si>
+  <si>
+    <t>https://www.automobilwoche.de/agenturmeldungen/personalisierung-des-autos-ab-werk</t>
   </si>
 </sst>
 </file>
@@ -428,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,13 +464,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,139 +478,142 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,14 +624,90 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{135F2061-A4D1-417E-B0F1-7099AEBA75C6}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{436532ED-2BCD-4150-8183-E2449046D606}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{74B2B0E7-9859-4095-816D-305BA6B0BF0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>